--- a/Extensive/MusicResult.xlsx
+++ b/Extensive/MusicResult.xlsx
@@ -27,7 +27,7 @@
     <t>Song Name</t>
   </si>
   <si>
-    <t>Intent</t>
+    <t>Action</t>
   </si>
   <si>
     <t>Command</t>
@@ -789,7 +789,7 @@
     <t>Cool! Now playing Red Solo Cup (Album Version) at red seat.</t>
   </si>
   <si>
-    <t>[{u'category': u'music', u'action_type': u'play', u'title': u'Red Solo Cup (Album Version)'}]</t>
+    <t>[{u'category': u'music', u'target': u'red', u'action_type': u'play', u'title': u'Red Solo Cup (Album Version)'}]</t>
   </si>
   <si>
     <t>Rise Up</t>
@@ -1509,7 +1509,7 @@
     <t>Cool! Now playing your Green Day playlist at green seat.</t>
   </si>
   <si>
-    <t>[{u'category': u'music', u'action_type': u'play', u'artist': u'Green Day'}]</t>
+    <t>[{u'category': u'music', u'target': u'green', u'action_type': u'play', u'artist': u'Green Day'}]</t>
   </si>
   <si>
     <t>Guns N' Roses</t>
